--- a/src/ANTHONY.xlsx
+++ b/src/ANTHONY.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="65">
   <si>
     <t>ANTHONY_MBM_Worked</t>
   </si>
@@ -173,7 +173,10 @@
     <t>09:43:29 04-06-2023</t>
   </si>
   <si>
-    <t>15:28:30 04-11-2023</t>
+    <t>08:37:01 04-11-2023</t>
+  </si>
+  <si>
+    <t>16:21:09 04-11-2023</t>
   </si>
   <si>
     <t>Automatically Assigned Ticket</t>
@@ -201,6 +204,9 @@
   </si>
   <si>
     <t>15:27:14 04-03-2023</t>
+  </si>
+  <si>
+    <t>17:44:27 04-11-2023</t>
   </si>
   <si>
     <t>Agent Created</t>
@@ -565,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,7 +590,7 @@
         <v>44943.6261206713</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -592,7 +598,7 @@
         <v>44945.41377314815</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -600,7 +606,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -608,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -616,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -624,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -632,7 +638,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -640,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -648,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -656,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -664,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -672,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -680,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -688,7 +694,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -696,7 +702,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -704,7 +710,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -712,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -720,7 +726,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -728,7 +734,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -736,7 +742,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -744,7 +750,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -752,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -760,7 +766,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -768,7 +774,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -776,7 +782,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -784,7 +790,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -792,7 +798,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -800,7 +806,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -808,7 +814,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -816,7 +822,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -824,7 +830,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -832,7 +838,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -840,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -848,7 +854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -856,7 +862,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -864,7 +870,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -872,7 +878,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -880,7 +886,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -888,7 +894,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -896,7 +902,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -904,7 +910,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -912,7 +918,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -920,7 +926,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -928,7 +934,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -936,7 +942,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -944,7 +950,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -952,7 +958,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -960,7 +966,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -968,7 +974,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -976,7 +982,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -984,7 +990,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -992,7 +998,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1000,7 +1006,15 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1010,7 +1024,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1032,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1029,55 +1043,63 @@
         <v>44937.60226997685</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/src/ANTHONY.xlsx
+++ b/src/ANTHONY.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88214FAF-CFE1-450D-A1A4-021F5262F159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANTHONY_MBM_Worked" sheetId="1" r:id="rId1"/>
     <sheet name="ANTHONY_UET_Worked" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
   <si>
     <t>ANTHONY_MBM_Worked</t>
   </si>
@@ -23,6 +37,12 @@
     <t>Action</t>
   </si>
   <si>
+    <t>Automatically Assigned Ticket</t>
+  </si>
+  <si>
+    <t>Manually Assigned Ticket</t>
+  </si>
+  <si>
     <t>09:59:43 01-23-2023</t>
   </si>
   <si>
@@ -179,15 +199,15 @@
     <t>16:21:09 04-11-2023</t>
   </si>
   <si>
-    <t>Automatically Assigned Ticket</t>
-  </si>
-  <si>
-    <t>Manually Assigned Ticket</t>
+    <t>17:27:06 04-12-2023</t>
   </si>
   <si>
     <t>ANTHONY_UET_Worked</t>
   </si>
   <si>
+    <t>Agent Created</t>
+  </si>
+  <si>
     <t>16:11:41 01-19-2023</t>
   </si>
   <si>
@@ -207,17 +227,14 @@
   </si>
   <si>
     <t>17:44:27 04-11-2023</t>
-  </si>
-  <si>
-    <t>Agent Created</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -283,6 +300,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -329,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,9 +386,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,6 +438,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -570,12 +631,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E57" sqref="A57:E57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -587,434 +653,442 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44943.6261206713</v>
+        <v>44943.626120671302</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>44945.41377314815</v>
+        <v>44945.413773148153</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1023,7 +1097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1032,7 +1106,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1040,66 +1114,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44937.60226997685</v>
+        <v>44937.602269976851</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/ANTHONY.xlsx
+++ b/src/ANTHONY.xlsx
@@ -1,35 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88214FAF-CFE1-450D-A1A4-021F5262F159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="ANTHONY_MBM_Worked" sheetId="1" r:id="rId1"/>
     <sheet name="ANTHONY_UET_Worked" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
   <si>
     <t>ANTHONY_MBM_Worked</t>
   </si>
@@ -37,204 +23,207 @@
     <t>Action</t>
   </si>
   <si>
+    <t>09:59:43 01-23-2023</t>
+  </si>
+  <si>
+    <t>10:52:17 01-26-2023</t>
+  </si>
+  <si>
+    <t>09:59:27 01-30-2023</t>
+  </si>
+  <si>
+    <t>18:12:44 02-02-2023</t>
+  </si>
+  <si>
+    <t>09:49:00 02-08-2023</t>
+  </si>
+  <si>
+    <t>14:30:47 02-09-2023</t>
+  </si>
+  <si>
+    <t>09:55:40 02-13-2023</t>
+  </si>
+  <si>
+    <t>17:10:21 02-13-2023</t>
+  </si>
+  <si>
+    <t>09:56:15 02-15-2023</t>
+  </si>
+  <si>
+    <t>16:50:00 02-16-2023</t>
+  </si>
+  <si>
+    <t>10:04:09 02-20-2023</t>
+  </si>
+  <si>
+    <t>09:57:15 02-22-2023</t>
+  </si>
+  <si>
+    <t>15:32:27 02-22-2023</t>
+  </si>
+  <si>
+    <t>10:30:11 02-24-2023</t>
+  </si>
+  <si>
+    <t>10:01:57 02-27-2023</t>
+  </si>
+  <si>
+    <t>10:06:34 02-27-2023</t>
+  </si>
+  <si>
+    <t>16:00:12 02-28-2023</t>
+  </si>
+  <si>
+    <t>10:01:06 03-02-2023</t>
+  </si>
+  <si>
+    <t>09:59:21 03-06-2023</t>
+  </si>
+  <si>
+    <t>09:57:30 03-07-2023</t>
+  </si>
+  <si>
+    <t>13:39:23 03-08-2023</t>
+  </si>
+  <si>
+    <t>10:25:20 03-10-2023</t>
+  </si>
+  <si>
+    <t>10:05:33 03-13-2023</t>
+  </si>
+  <si>
+    <t>10:07:44 03-13-2023</t>
+  </si>
+  <si>
+    <t>09:58:57 03-15-2023</t>
+  </si>
+  <si>
+    <t>09:59:18 03-16-2023</t>
+  </si>
+  <si>
+    <t>15:11:18 03-16-2023</t>
+  </si>
+  <si>
+    <t>10:03:18 03-17-2023</t>
+  </si>
+  <si>
+    <t>10:07:12 03-17-2023</t>
+  </si>
+  <si>
+    <t>11:57:17 03-17-2023</t>
+  </si>
+  <si>
+    <t>08:43:34 03-20-2023</t>
+  </si>
+  <si>
+    <t>08:49:26 03-20-2023</t>
+  </si>
+  <si>
+    <t>08:59:06 03-20-2023</t>
+  </si>
+  <si>
+    <t>15:50:37 03-21-2023</t>
+  </si>
+  <si>
+    <t>15:10:38 03-23-2023</t>
+  </si>
+  <si>
+    <t>08:34:03 03-24-2023</t>
+  </si>
+  <si>
+    <t>08:48:39 03-27-2023</t>
+  </si>
+  <si>
+    <t>12:36:34 03-27-2023</t>
+  </si>
+  <si>
+    <t>08:43:40 03-28-2023</t>
+  </si>
+  <si>
+    <t>08:48:49 03-28-2023</t>
+  </si>
+  <si>
+    <t>08:53:47 03-28-2023</t>
+  </si>
+  <si>
+    <t>17:48:15 03-28-2023</t>
+  </si>
+  <si>
+    <t>18:41:28 03-29-2023</t>
+  </si>
+  <si>
+    <t>13:48:33 03-31-2023</t>
+  </si>
+  <si>
+    <t>08:37:19 04-03-2023</t>
+  </si>
+  <si>
+    <t>08:43:41 04-03-2023</t>
+  </si>
+  <si>
+    <t>08:48:21 04-03-2023</t>
+  </si>
+  <si>
+    <t>17:51:58 04-04-2023</t>
+  </si>
+  <si>
+    <t>14:03:10 04-05-2023</t>
+  </si>
+  <si>
+    <t>09:43:29 04-06-2023</t>
+  </si>
+  <si>
+    <t>08:37:01 04-11-2023</t>
+  </si>
+  <si>
+    <t>16:21:09 04-11-2023</t>
+  </si>
+  <si>
+    <t>17:27:06 04-12-2023</t>
+  </si>
+  <si>
+    <t>08:39:07 04-13-2023</t>
+  </si>
+  <si>
     <t>Automatically Assigned Ticket</t>
   </si>
   <si>
     <t>Manually Assigned Ticket</t>
   </si>
   <si>
-    <t>09:59:43 01-23-2023</t>
-  </si>
-  <si>
-    <t>10:52:17 01-26-2023</t>
-  </si>
-  <si>
-    <t>09:59:27 01-30-2023</t>
-  </si>
-  <si>
-    <t>18:12:44 02-02-2023</t>
-  </si>
-  <si>
-    <t>09:49:00 02-08-2023</t>
-  </si>
-  <si>
-    <t>14:30:47 02-09-2023</t>
-  </si>
-  <si>
-    <t>09:55:40 02-13-2023</t>
-  </si>
-  <si>
-    <t>17:10:21 02-13-2023</t>
-  </si>
-  <si>
-    <t>09:56:15 02-15-2023</t>
-  </si>
-  <si>
-    <t>16:50:00 02-16-2023</t>
-  </si>
-  <si>
-    <t>10:04:09 02-20-2023</t>
-  </si>
-  <si>
-    <t>09:57:15 02-22-2023</t>
-  </si>
-  <si>
-    <t>15:32:27 02-22-2023</t>
-  </si>
-  <si>
-    <t>10:30:11 02-24-2023</t>
-  </si>
-  <si>
-    <t>10:01:57 02-27-2023</t>
-  </si>
-  <si>
-    <t>10:06:34 02-27-2023</t>
-  </si>
-  <si>
-    <t>16:00:12 02-28-2023</t>
-  </si>
-  <si>
-    <t>10:01:06 03-02-2023</t>
-  </si>
-  <si>
-    <t>09:59:21 03-06-2023</t>
-  </si>
-  <si>
-    <t>09:57:30 03-07-2023</t>
-  </si>
-  <si>
-    <t>13:39:23 03-08-2023</t>
-  </si>
-  <si>
-    <t>10:25:20 03-10-2023</t>
-  </si>
-  <si>
-    <t>10:05:33 03-13-2023</t>
-  </si>
-  <si>
-    <t>10:07:44 03-13-2023</t>
-  </si>
-  <si>
-    <t>09:58:57 03-15-2023</t>
-  </si>
-  <si>
-    <t>09:59:18 03-16-2023</t>
-  </si>
-  <si>
-    <t>15:11:18 03-16-2023</t>
-  </si>
-  <si>
-    <t>10:03:18 03-17-2023</t>
-  </si>
-  <si>
-    <t>10:07:12 03-17-2023</t>
-  </si>
-  <si>
-    <t>11:57:17 03-17-2023</t>
-  </si>
-  <si>
-    <t>08:43:34 03-20-2023</t>
-  </si>
-  <si>
-    <t>08:49:26 03-20-2023</t>
-  </si>
-  <si>
-    <t>08:59:06 03-20-2023</t>
-  </si>
-  <si>
-    <t>15:50:37 03-21-2023</t>
-  </si>
-  <si>
-    <t>15:10:38 03-23-2023</t>
-  </si>
-  <si>
-    <t>08:34:03 03-24-2023</t>
-  </si>
-  <si>
-    <t>08:48:39 03-27-2023</t>
-  </si>
-  <si>
-    <t>12:36:34 03-27-2023</t>
-  </si>
-  <si>
-    <t>08:43:40 03-28-2023</t>
-  </si>
-  <si>
-    <t>08:48:49 03-28-2023</t>
-  </si>
-  <si>
-    <t>08:53:47 03-28-2023</t>
-  </si>
-  <si>
-    <t>17:48:15 03-28-2023</t>
-  </si>
-  <si>
-    <t>18:41:28 03-29-2023</t>
-  </si>
-  <si>
-    <t>13:48:33 03-31-2023</t>
-  </si>
-  <si>
-    <t>08:37:19 04-03-2023</t>
-  </si>
-  <si>
-    <t>08:43:41 04-03-2023</t>
-  </si>
-  <si>
-    <t>08:48:21 04-03-2023</t>
-  </si>
-  <si>
-    <t>17:51:58 04-04-2023</t>
-  </si>
-  <si>
-    <t>14:03:10 04-05-2023</t>
-  </si>
-  <si>
-    <t>09:43:29 04-06-2023</t>
-  </si>
-  <si>
-    <t>08:37:01 04-11-2023</t>
-  </si>
-  <si>
-    <t>16:21:09 04-11-2023</t>
-  </si>
-  <si>
-    <t>17:27:06 04-12-2023</t>
-  </si>
-  <si>
     <t>ANTHONY_UET_Worked</t>
   </si>
   <si>
+    <t>16:11:41 01-19-2023</t>
+  </si>
+  <si>
+    <t>14:00:01 02-03-2023</t>
+  </si>
+  <si>
+    <t>14:26:23 02-20-2023</t>
+  </si>
+  <si>
+    <t>10:42:05 03-06-2023</t>
+  </si>
+  <si>
+    <t>15:11:43 03-17-2023</t>
+  </si>
+  <si>
+    <t>15:27:14 04-03-2023</t>
+  </si>
+  <si>
+    <t>17:44:27 04-11-2023</t>
+  </si>
+  <si>
     <t>Agent Created</t>
-  </si>
-  <si>
-    <t>16:11:41 01-19-2023</t>
-  </si>
-  <si>
-    <t>14:00:01 02-03-2023</t>
-  </si>
-  <si>
-    <t>14:26:23 02-20-2023</t>
-  </si>
-  <si>
-    <t>10:42:05 03-06-2023</t>
-  </si>
-  <si>
-    <t>15:11:43 03-17-2023</t>
-  </si>
-  <si>
-    <t>15:27:14 04-03-2023</t>
-  </si>
-  <si>
-    <t>17:44:27 04-11-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -300,14 +289,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -354,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,27 +367,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,24 +401,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -631,17 +576,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E57" sqref="A57:E57"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -653,442 +593,450 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44943.626120671302</v>
+        <v>44943.6261206713</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>44945.413773148153</v>
+        <v>44945.41377314815</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1106,7 +1054,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1114,10 +1062,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44937.602269976851</v>
+        <v>44937.60226997685</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1125,7 +1073,7 @@
         <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1133,7 +1081,7 @@
         <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1141,7 +1089,7 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1149,7 +1097,7 @@
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1157,7 +1105,7 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1165,7 +1113,7 @@
         <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1173,7 +1121,7 @@
         <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/src/ANTHONY.xlsx
+++ b/src/ANTHONY.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="69">
   <si>
     <t>ANTHONY_MBM_Worked</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>08:39:07 04-13-2023</t>
+  </si>
+  <si>
+    <t>08:32:14 04-14-2023</t>
+  </si>
+  <si>
+    <t>09:45:57 04-14-2023</t>
   </si>
   <si>
     <t>Automatically Assigned Ticket</t>
@@ -577,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,7 +602,7 @@
         <v>44943.6261206713</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -604,7 +610,7 @@
         <v>44945.41377314815</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -612,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -620,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -628,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -636,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -644,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -652,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -660,7 +666,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -668,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -676,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -684,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -692,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -700,7 +706,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -708,7 +714,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -716,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -724,7 +730,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -732,7 +738,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -740,7 +746,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -748,7 +754,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -756,7 +762,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -764,7 +770,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -772,7 +778,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -780,7 +786,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -788,7 +794,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -796,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -804,7 +810,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -812,7 +818,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -820,7 +826,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -828,7 +834,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -836,7 +842,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -844,7 +850,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -852,7 +858,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -860,7 +866,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -868,7 +874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -876,7 +882,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -884,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -892,7 +898,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -900,7 +906,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -908,7 +914,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -916,7 +922,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -924,7 +930,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -932,7 +938,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -940,7 +946,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -948,7 +954,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -956,7 +962,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -964,7 +970,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -972,7 +978,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -980,7 +986,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -988,7 +994,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -996,7 +1002,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1004,7 +1010,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1012,7 +1018,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1020,7 +1026,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1028,7 +1034,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1036,7 +1042,23 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1076,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1065,63 +1087,63 @@
         <v>44937.60226997685</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
